--- a/_testing/output/tablex_test6.xlsx
+++ b/_testing/output/tablex_test6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="3">
   <si>
     <t>Test 6: Variable Summary</t>
   </si>
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -53,15 +53,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,23 +83,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="true"/>
-    <col min="2" max="2" width="49.7109375" style="3" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="5" customWidth="true"/>
+    <col min="2" max="2" width="49.7109375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" t="s">
+    <row r="1" s="4" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
